--- a/comprobantes/Comprobantesestacionamiento.xlsx
+++ b/comprobantes/Comprobantesestacionamiento.xlsx
@@ -1,71 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zcheveste\Desktop\robot_estacionamiento\comprobantes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Compromisos" sheetId="1" r:id="rId1"/>
+    <sheet name="Compromisos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>Tipo_comprobante</t>
-  </si>
-  <si>
-    <t>Numero_comprobante</t>
-  </si>
-  <si>
-    <t>Numero_cuenta</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>9154</t>
-  </si>
-  <si>
-    <t>12218</t>
-  </si>
-  <si>
-    <t>9155</t>
-  </si>
-  <si>
-    <t>12241</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -404,46 +420,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo_comprobante</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Numero_comprobante</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Numero_cuenta</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9154</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12218</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9155</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12241</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/comprobantes/Comprobantesestacionamiento.xlsx
+++ b/comprobantes/Comprobantesestacionamiento.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Compromisos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Compromisos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9154</t>
+          <t>9165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12218</t>
+          <t>12219</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,437 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9155</t>
+          <t>9177</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>12225</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9189</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12452</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12416</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12325</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9170</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12230</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9187</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12325</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9191</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12331</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9167</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12218</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12222</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9169</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>12241</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9184</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12332</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9181</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>11552</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9179</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10765</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9192</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12476</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9190</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9172</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>12233</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9185</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1647</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9166</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12223</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9183</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12326</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9175</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>12220</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9174</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>12227</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9164</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>12217</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9178</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10765</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9173</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12227</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9176</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12234</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9182</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>12231</t>
         </is>
       </c>
     </row>

--- a/comprobantes/Comprobantesestacionamiento.xlsx
+++ b/comprobantes/Comprobantesestacionamiento.xlsx
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9164</t>
+          <t>9228</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
